--- a/7. Quorum sensing activity/QS_train.xlsx
+++ b/7. Quorum sensing activity/QS_train.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenjiaodu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhenjiaodu/Downloads/UniDL4BioPep-main/7. Quorum sensing activity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D13C3BE1-8B2B-2046-B5BC-16CEED4FA445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D243CC-17E6-164B-A35E-9DEBE9D07DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10600" yWindow="2800" windowWidth="27640" windowHeight="16940" xr2:uid="{2D8F3C5D-ADBF-2748-A0FC-163B5B708C8F}"/>
+    <workbookView xWindow="9140" yWindow="2340" windowWidth="27640" windowHeight="16940" xr2:uid="{2D8F3C5D-ADBF-2748-A0FC-163B5B708C8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1306,9 +1306,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1346,7 +1346,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1452,7 +1452,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1594,7 +1594,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1605,7 +1605,7 @@
   <dimension ref="A1:B808"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E11" sqref="D2:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1626,7 +1626,7 @@
         <v>134</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1634,7 +1634,7 @@
         <v>292</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1642,7 +1642,7 @@
         <v>308</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1650,7 +1650,7 @@
         <v>385</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1658,7 +1658,7 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1666,7 +1666,7 @@
         <v>123</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1674,7 +1674,7 @@
         <v>140</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1682,7 +1682,7 @@
         <v>56</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1690,7 +1690,7 @@
         <v>199</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1698,7 +1698,7 @@
         <v>220</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1706,7 +1706,7 @@
         <v>191</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1714,7 +1714,7 @@
         <v>188</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1722,7 +1722,7 @@
         <v>42</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1730,7 +1730,7 @@
         <v>128</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1738,7 +1738,7 @@
         <v>50</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1746,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1754,7 +1754,7 @@
         <v>6</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1762,7 +1762,7 @@
         <v>354</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1770,7 +1770,7 @@
         <v>67</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1778,7 +1778,7 @@
         <v>293</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1786,7 +1786,7 @@
         <v>287</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1794,7 +1794,7 @@
         <v>296</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1802,7 +1802,7 @@
         <v>286</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1810,7 +1810,7 @@
         <v>240</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1818,7 +1818,7 @@
         <v>133</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1826,7 +1826,7 @@
         <v>7</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1834,7 +1834,7 @@
         <v>294</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1842,7 +1842,7 @@
         <v>75</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1850,7 +1850,7 @@
         <v>334</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1858,7 +1858,7 @@
         <v>323</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1866,7 +1866,7 @@
         <v>99</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1874,7 +1874,7 @@
         <v>217</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1898,7 +1898,7 @@
         <v>25</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1906,7 +1906,7 @@
         <v>2</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1914,7 +1914,7 @@
         <v>3</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1922,7 +1922,7 @@
         <v>174</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1930,7 +1930,7 @@
         <v>270</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1938,7 +1938,7 @@
         <v>4</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1946,7 +1946,7 @@
         <v>17</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1954,7 +1954,7 @@
         <v>208</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1962,7 +1962,7 @@
         <v>209</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1970,7 +1970,7 @@
         <v>124</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1978,7 +1978,7 @@
         <v>9</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1986,7 +1986,7 @@
         <v>38</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -1994,7 +1994,7 @@
         <v>213</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2002,7 +2002,7 @@
         <v>290</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2010,7 +2010,7 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2018,7 +2018,7 @@
         <v>94</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2026,7 +2026,7 @@
         <v>66</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2034,7 +2034,7 @@
         <v>95</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2042,7 +2042,7 @@
         <v>165</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2050,7 +2050,7 @@
         <v>344</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2058,7 +2058,7 @@
         <v>341</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2066,7 +2066,7 @@
         <v>148</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2074,7 +2074,7 @@
         <v>316</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2082,7 +2082,7 @@
         <v>142</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2090,7 +2090,7 @@
         <v>141</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2098,7 +2098,7 @@
         <v>52</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2106,7 +2106,7 @@
         <v>211</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2114,7 +2114,7 @@
         <v>100</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2122,7 +2122,7 @@
         <v>149</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2130,7 +2130,7 @@
         <v>10</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2138,7 +2138,7 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2146,7 +2146,7 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2154,7 +2154,7 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2162,7 +2162,7 @@
         <v>145</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2170,7 +2170,7 @@
         <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2178,7 +2178,7 @@
         <v>241</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2186,7 +2186,7 @@
         <v>348</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2194,7 +2194,7 @@
         <v>150</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2202,7 +2202,7 @@
         <v>258</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2210,7 +2210,7 @@
         <v>330</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2218,7 +2218,7 @@
         <v>119</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2226,7 +2226,7 @@
         <v>331</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2234,7 +2234,7 @@
         <v>146</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2242,7 +2242,7 @@
         <v>11</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2250,7 +2250,7 @@
         <v>151</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2258,7 +2258,7 @@
         <v>147</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2266,7 +2266,7 @@
         <v>144</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2274,7 +2274,7 @@
         <v>152</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2282,7 +2282,7 @@
         <v>153</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2290,7 +2290,7 @@
         <v>321</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2298,7 +2298,7 @@
         <v>204</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2306,7 +2306,7 @@
         <v>197</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2314,7 +2314,7 @@
         <v>12</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2322,7 +2322,7 @@
         <v>13</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2330,7 +2330,7 @@
         <v>14</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2338,7 +2338,7 @@
         <v>156</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2346,7 +2346,7 @@
         <v>154</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2354,7 +2354,7 @@
         <v>155</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2362,7 +2362,7 @@
         <v>383</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2370,7 +2370,7 @@
         <v>96</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2378,7 +2378,7 @@
         <v>221</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2386,7 +2386,7 @@
         <v>280</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2394,7 +2394,7 @@
         <v>281</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2402,7 +2402,7 @@
         <v>138</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2410,7 +2410,7 @@
         <v>268</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2418,7 +2418,7 @@
         <v>267</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2426,7 +2426,7 @@
         <v>252</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2434,7 +2434,7 @@
         <v>346</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2442,7 +2442,7 @@
         <v>224</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2450,7 +2450,7 @@
         <v>225</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2458,7 +2458,7 @@
         <v>230</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2466,7 +2466,7 @@
         <v>227</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2474,7 +2474,7 @@
         <v>234</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2482,7 +2482,7 @@
         <v>264</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2490,7 +2490,7 @@
         <v>73</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2498,7 +2498,7 @@
         <v>359</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2506,7 +2506,7 @@
         <v>352</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2514,7 +2514,7 @@
         <v>368</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2522,7 +2522,7 @@
         <v>317</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2530,7 +2530,7 @@
         <v>231</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2538,7 +2538,7 @@
         <v>276</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2546,7 +2546,7 @@
         <v>285</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2554,7 +2554,7 @@
         <v>46</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2562,7 +2562,7 @@
         <v>102</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2570,7 +2570,7 @@
         <v>103</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2578,7 +2578,7 @@
         <v>310</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2586,7 +2586,7 @@
         <v>318</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2594,7 +2594,7 @@
         <v>319</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2602,7 +2602,7 @@
         <v>262</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2610,7 +2610,7 @@
         <v>272</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2618,7 +2618,7 @@
         <v>275</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2626,7 +2626,7 @@
         <v>274</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2634,7 +2634,7 @@
         <v>260</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2642,7 +2642,7 @@
         <v>271</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2650,7 +2650,7 @@
         <v>306</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2658,7 +2658,7 @@
         <v>104</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2666,7 +2666,7 @@
         <v>41</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2674,7 +2674,7 @@
         <v>39</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2682,7 +2682,7 @@
         <v>273</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2690,7 +2690,7 @@
         <v>311</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2698,7 +2698,7 @@
         <v>18</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2706,7 +2706,7 @@
         <v>159</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2714,7 +2714,7 @@
         <v>74</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2722,7 +2722,7 @@
         <v>313</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2730,7 +2730,7 @@
         <v>312</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2738,7 +2738,7 @@
         <v>315</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2746,7 +2746,7 @@
         <v>314</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2754,7 +2754,7 @@
         <v>166</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2762,7 +2762,7 @@
         <v>342</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2770,7 +2770,7 @@
         <v>343</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2778,7 +2778,7 @@
         <v>65</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2786,7 +2786,7 @@
         <v>248</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2794,7 +2794,7 @@
         <v>247</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2802,7 +2802,7 @@
         <v>232</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2810,7 +2810,7 @@
         <v>233</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2818,7 +2818,7 @@
         <v>246</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2826,7 +2826,7 @@
         <v>257</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2834,7 +2834,7 @@
         <v>277</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2842,7 +2842,7 @@
         <v>299</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2850,7 +2850,7 @@
         <v>263</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2858,7 +2858,7 @@
         <v>196</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2866,7 +2866,7 @@
         <v>160</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2874,7 +2874,7 @@
         <v>288</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2882,7 +2882,7 @@
         <v>289</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2890,7 +2890,7 @@
         <v>304</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2898,7 +2898,7 @@
         <v>282</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2906,7 +2906,7 @@
         <v>291</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2914,7 +2914,7 @@
         <v>19</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2922,7 +2922,7 @@
         <v>261</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2930,7 +2930,7 @@
         <v>245</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2938,7 +2938,7 @@
         <v>244</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2946,7 +2946,7 @@
         <v>200</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2954,7 +2954,7 @@
         <v>169</v>
       </c>
       <c r="B168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2962,7 +2962,7 @@
         <v>105</v>
       </c>
       <c r="B169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2970,7 +2970,7 @@
         <v>106</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2978,7 +2978,7 @@
         <v>107</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2986,7 +2986,7 @@
         <v>108</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -2994,7 +2994,7 @@
         <v>109</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3002,7 +3002,7 @@
         <v>279</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3010,7 +3010,7 @@
         <v>137</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3018,7 +3018,7 @@
         <v>236</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3026,7 +3026,7 @@
         <v>259</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3034,7 +3034,7 @@
         <v>37</v>
       </c>
       <c r="B178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3042,7 +3042,7 @@
         <v>249</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3050,7 +3050,7 @@
         <v>243</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3058,7 +3058,7 @@
         <v>242</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3066,7 +3066,7 @@
         <v>222</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3074,7 +3074,7 @@
         <v>121</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3082,7 +3082,7 @@
         <v>125</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3090,7 +3090,7 @@
         <v>57</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3098,7 +3098,7 @@
         <v>237</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3106,7 +3106,7 @@
         <v>235</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3114,7 +3114,7 @@
         <v>226</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3122,7 +3122,7 @@
         <v>250</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3130,7 +3130,7 @@
         <v>20</v>
       </c>
       <c r="B190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3138,7 +3138,7 @@
         <v>126</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3146,7 +3146,7 @@
         <v>53</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3154,7 +3154,7 @@
         <v>386</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3162,7 +3162,7 @@
         <v>399</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3170,7 +3170,7 @@
         <v>355</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3178,7 +3178,7 @@
         <v>356</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3186,7 +3186,7 @@
         <v>332</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3194,7 +3194,7 @@
         <v>194</v>
       </c>
       <c r="B198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3202,7 +3202,7 @@
         <v>214</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3210,7 +3210,7 @@
         <v>110</v>
       </c>
       <c r="B200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3218,7 +3218,7 @@
         <v>215</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3226,7 +3226,7 @@
         <v>251</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3234,7 +3234,7 @@
         <v>111</v>
       </c>
       <c r="B203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3242,7 +3242,7 @@
         <v>112</v>
       </c>
       <c r="B204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3250,7 +3250,7 @@
         <v>113</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3258,7 +3258,7 @@
         <v>114</v>
       </c>
       <c r="B206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3266,7 +3266,7 @@
         <v>335</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3274,7 +3274,7 @@
         <v>115</v>
       </c>
       <c r="B208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3282,7 +3282,7 @@
         <v>15</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3290,7 +3290,7 @@
         <v>309</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3298,7 +3298,7 @@
         <v>81</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3306,7 +3306,7 @@
         <v>82</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3314,7 +3314,7 @@
         <v>228</v>
       </c>
       <c r="B213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3322,7 +3322,7 @@
         <v>210</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3330,7 +3330,7 @@
         <v>21</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3338,7 +3338,7 @@
         <v>22</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3346,7 +3346,7 @@
         <v>387</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3354,7 +3354,7 @@
         <v>97</v>
       </c>
       <c r="B218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3362,7 +3362,7 @@
         <v>161</v>
       </c>
       <c r="B219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3370,7 +3370,7 @@
         <v>120</v>
       </c>
       <c r="B220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3378,7 +3378,7 @@
         <v>58</v>
       </c>
       <c r="B221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3386,7 +3386,7 @@
         <v>395</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3394,7 +3394,7 @@
         <v>353</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3402,7 +3402,7 @@
         <v>16</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3410,7 +3410,7 @@
         <v>361</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3418,7 +3418,7 @@
         <v>362</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3426,7 +3426,7 @@
         <v>370</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3434,7 +3434,7 @@
         <v>358</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3442,7 +3442,7 @@
         <v>372</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3450,7 +3450,7 @@
         <v>373</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3458,7 +3458,7 @@
         <v>388</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3466,7 +3466,7 @@
         <v>393</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3474,7 +3474,7 @@
         <v>390</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3482,7 +3482,7 @@
         <v>375</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3490,7 +3490,7 @@
         <v>23</v>
       </c>
       <c r="B235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3498,7 +3498,7 @@
         <v>371</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3506,7 +3506,7 @@
         <v>357</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3514,7 +3514,7 @@
         <v>333</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3522,7 +3522,7 @@
         <v>187</v>
       </c>
       <c r="B239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3530,7 +3530,7 @@
         <v>183</v>
       </c>
       <c r="B240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3538,7 +3538,7 @@
         <v>382</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3546,7 +3546,7 @@
         <v>351</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3554,7 +3554,7 @@
         <v>389</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3562,7 +3562,7 @@
         <v>378</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3570,7 +3570,7 @@
         <v>392</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3578,7 +3578,7 @@
         <v>384</v>
       </c>
       <c r="B246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3586,7 +3586,7 @@
         <v>377</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3594,7 +3594,7 @@
         <v>379</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3602,7 +3602,7 @@
         <v>374</v>
       </c>
       <c r="B249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3610,7 +3610,7 @@
         <v>43</v>
       </c>
       <c r="B250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3618,7 +3618,7 @@
         <v>44</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3626,7 +3626,7 @@
         <v>381</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3634,7 +3634,7 @@
         <v>365</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3642,7 +3642,7 @@
         <v>380</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3650,7 +3650,7 @@
         <v>367</v>
       </c>
       <c r="B255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3658,7 +3658,7 @@
         <v>347</v>
       </c>
       <c r="B256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3666,7 +3666,7 @@
         <v>24</v>
       </c>
       <c r="B257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3674,7 +3674,7 @@
         <v>265</v>
       </c>
       <c r="B258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3682,7 +3682,7 @@
         <v>363</v>
       </c>
       <c r="B259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3690,7 +3690,7 @@
         <v>349</v>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3698,7 +3698,7 @@
         <v>350</v>
       </c>
       <c r="B261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3706,7 +3706,7 @@
         <v>295</v>
       </c>
       <c r="B262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3714,7 +3714,7 @@
         <v>322</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3722,7 +3722,7 @@
         <v>364</v>
       </c>
       <c r="B264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3730,7 +3730,7 @@
         <v>369</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3738,7 +3738,7 @@
         <v>398</v>
       </c>
       <c r="B266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3746,7 +3746,7 @@
         <v>394</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3754,7 +3754,7 @@
         <v>376</v>
       </c>
       <c r="B268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3762,7 +3762,7 @@
         <v>360</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3770,7 +3770,7 @@
         <v>325</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3778,7 +3778,7 @@
         <v>326</v>
       </c>
       <c r="B271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3786,7 +3786,7 @@
         <v>339</v>
       </c>
       <c r="B272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3794,7 +3794,7 @@
         <v>59</v>
       </c>
       <c r="B273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3802,7 +3802,7 @@
         <v>116</v>
       </c>
       <c r="B274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3810,7 +3810,7 @@
         <v>203</v>
       </c>
       <c r="B275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3818,7 +3818,7 @@
         <v>26</v>
       </c>
       <c r="B276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3826,7 +3826,7 @@
         <v>60</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3834,7 +3834,7 @@
         <v>27</v>
       </c>
       <c r="B278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3842,7 +3842,7 @@
         <v>28</v>
       </c>
       <c r="B279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3850,7 +3850,7 @@
         <v>8</v>
       </c>
       <c r="B280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3858,7 +3858,7 @@
         <v>391</v>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3866,7 +3866,7 @@
         <v>122</v>
       </c>
       <c r="B282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3874,7 +3874,7 @@
         <v>269</v>
       </c>
       <c r="B283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3882,7 +3882,7 @@
         <v>254</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3890,7 +3890,7 @@
         <v>29</v>
       </c>
       <c r="B285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3898,7 +3898,7 @@
         <v>30</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3906,7 +3906,7 @@
         <v>132</v>
       </c>
       <c r="B287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3914,7 +3914,7 @@
         <v>31</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3922,7 +3922,7 @@
         <v>129</v>
       </c>
       <c r="B289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3930,7 +3930,7 @@
         <v>135</v>
       </c>
       <c r="B290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3938,7 +3938,7 @@
         <v>130</v>
       </c>
       <c r="B291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3946,7 +3946,7 @@
         <v>136</v>
       </c>
       <c r="B292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3954,7 +3954,7 @@
         <v>131</v>
       </c>
       <c r="B293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3962,7 +3962,7 @@
         <v>201</v>
       </c>
       <c r="B294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3970,7 +3970,7 @@
         <v>327</v>
       </c>
       <c r="B295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3978,7 +3978,7 @@
         <v>32</v>
       </c>
       <c r="B296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3986,7 +3986,7 @@
         <v>207</v>
       </c>
       <c r="B297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -3994,7 +3994,7 @@
         <v>206</v>
       </c>
       <c r="B298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4002,7 +4002,7 @@
         <v>284</v>
       </c>
       <c r="B299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4010,7 +4010,7 @@
         <v>117</v>
       </c>
       <c r="B300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4018,7 +4018,7 @@
         <v>305</v>
       </c>
       <c r="B301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4026,7 +4026,7 @@
         <v>256</v>
       </c>
       <c r="B302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4034,7 +4034,7 @@
         <v>255</v>
       </c>
       <c r="B303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4042,7 +4042,7 @@
         <v>298</v>
       </c>
       <c r="B304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4050,7 +4050,7 @@
         <v>307</v>
       </c>
       <c r="B305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4058,7 +4058,7 @@
         <v>253</v>
       </c>
       <c r="B306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4066,7 +4066,7 @@
         <v>297</v>
       </c>
       <c r="B307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4074,7 +4074,7 @@
         <v>238</v>
       </c>
       <c r="B308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4082,7 +4082,7 @@
         <v>61</v>
       </c>
       <c r="B309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4090,7 +4090,7 @@
         <v>62</v>
       </c>
       <c r="B310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4098,7 +4098,7 @@
         <v>175</v>
       </c>
       <c r="B311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4106,7 +4106,7 @@
         <v>176</v>
       </c>
       <c r="B312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4114,7 +4114,7 @@
         <v>177</v>
       </c>
       <c r="B313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4122,7 +4122,7 @@
         <v>157</v>
       </c>
       <c r="B314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4130,7 +4130,7 @@
         <v>162</v>
       </c>
       <c r="B315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4138,7 +4138,7 @@
         <v>170</v>
       </c>
       <c r="B316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4146,7 +4146,7 @@
         <v>167</v>
       </c>
       <c r="B317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4154,7 +4154,7 @@
         <v>171</v>
       </c>
       <c r="B318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4162,7 +4162,7 @@
         <v>178</v>
       </c>
       <c r="B319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4170,7 +4170,7 @@
         <v>179</v>
       </c>
       <c r="B320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4178,7 +4178,7 @@
         <v>180</v>
       </c>
       <c r="B321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4186,7 +4186,7 @@
         <v>172</v>
       </c>
       <c r="B322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4194,7 +4194,7 @@
         <v>181</v>
       </c>
       <c r="B323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4202,7 +4202,7 @@
         <v>182</v>
       </c>
       <c r="B324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4210,7 +4210,7 @@
         <v>173</v>
       </c>
       <c r="B325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4218,7 +4218,7 @@
         <v>163</v>
       </c>
       <c r="B326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4226,7 +4226,7 @@
         <v>198</v>
       </c>
       <c r="B327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4234,7 +4234,7 @@
         <v>303</v>
       </c>
       <c r="B328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4242,7 +4242,7 @@
         <v>219</v>
       </c>
       <c r="B329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4250,7 +4250,7 @@
         <v>192</v>
       </c>
       <c r="B330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4258,7 +4258,7 @@
         <v>189</v>
       </c>
       <c r="B331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4266,7 +4266,7 @@
         <v>33</v>
       </c>
       <c r="B332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4274,7 +4274,7 @@
         <v>190</v>
       </c>
       <c r="B333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4282,7 +4282,7 @@
         <v>300</v>
       </c>
       <c r="B334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4290,7 +4290,7 @@
         <v>216</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4298,7 +4298,7 @@
         <v>164</v>
       </c>
       <c r="B336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4306,7 +4306,7 @@
         <v>168</v>
       </c>
       <c r="B337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4314,7 +4314,7 @@
         <v>143</v>
       </c>
       <c r="B338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4322,7 +4322,7 @@
         <v>98</v>
       </c>
       <c r="B339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4330,7 +4330,7 @@
         <v>185</v>
       </c>
       <c r="B340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4338,7 +4338,7 @@
         <v>34</v>
       </c>
       <c r="B341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4346,7 +4346,7 @@
         <v>35</v>
       </c>
       <c r="B342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4354,7 +4354,7 @@
         <v>86</v>
       </c>
       <c r="B343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4362,7 +4362,7 @@
         <v>87</v>
       </c>
       <c r="B344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4370,7 +4370,7 @@
         <v>239</v>
       </c>
       <c r="B345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4378,7 +4378,7 @@
         <v>63</v>
       </c>
       <c r="B346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4386,7 +4386,7 @@
         <v>158</v>
       </c>
       <c r="B347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4394,7 +4394,7 @@
         <v>205</v>
       </c>
       <c r="B348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4402,7 +4402,7 @@
         <v>118</v>
       </c>
       <c r="B349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4410,7 +4410,7 @@
         <v>64</v>
       </c>
       <c r="B350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4418,7 +4418,7 @@
         <v>366</v>
       </c>
       <c r="B351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4426,7 +4426,7 @@
         <v>218</v>
       </c>
       <c r="B352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4434,7 +4434,7 @@
         <v>186</v>
       </c>
       <c r="B353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4442,7 +4442,7 @@
         <v>195</v>
       </c>
       <c r="B354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4450,7 +4450,7 @@
         <v>223</v>
       </c>
       <c r="B355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4458,7 +4458,7 @@
         <v>45</v>
       </c>
       <c r="B356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4466,7 +4466,7 @@
         <v>320</v>
       </c>
       <c r="B357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4474,7 +4474,7 @@
         <v>212</v>
       </c>
       <c r="B358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4482,7 +4482,7 @@
         <v>88</v>
       </c>
       <c r="B359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4490,7 +4490,7 @@
         <v>127</v>
       </c>
       <c r="B360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4498,7 +4498,7 @@
         <v>184</v>
       </c>
       <c r="B361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4506,7 +4506,7 @@
         <v>283</v>
       </c>
       <c r="B362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4514,7 +4514,7 @@
         <v>229</v>
       </c>
       <c r="B363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4522,7 +4522,7 @@
         <v>266</v>
       </c>
       <c r="B364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4530,7 +4530,7 @@
         <v>36</v>
       </c>
       <c r="B365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4538,7 +4538,7 @@
         <v>337</v>
       </c>
       <c r="B366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4546,7 +4546,7 @@
         <v>336</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4554,7 +4554,7 @@
         <v>338</v>
       </c>
       <c r="B368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4562,7 +4562,7 @@
         <v>301</v>
       </c>
       <c r="B369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4570,7 +4570,7 @@
         <v>302</v>
       </c>
       <c r="B370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4578,7 +4578,7 @@
         <v>278</v>
       </c>
       <c r="B371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4586,7 +4586,7 @@
         <v>193</v>
       </c>
       <c r="B372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4594,7 +4594,7 @@
         <v>139</v>
       </c>
       <c r="B373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4602,7 +4602,7 @@
         <v>76</v>
       </c>
       <c r="B374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4610,7 +4610,7 @@
         <v>202</v>
       </c>
       <c r="B375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4618,7 +4618,7 @@
         <v>324</v>
       </c>
       <c r="B376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4626,7 +4626,7 @@
         <v>345</v>
       </c>
       <c r="B377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4634,7 +4634,7 @@
         <v>329</v>
       </c>
       <c r="B378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4642,7 +4642,7 @@
         <v>40</v>
       </c>
       <c r="B379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4650,7 +4650,7 @@
         <v>54</v>
       </c>
       <c r="B380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4658,7 +4658,7 @@
         <v>396</v>
       </c>
       <c r="B381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4666,7 +4666,7 @@
         <v>397</v>
       </c>
       <c r="B382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4674,7 +4674,7 @@
         <v>89</v>
       </c>
       <c r="B383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4682,7 +4682,7 @@
         <v>92</v>
       </c>
       <c r="B384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4690,7 +4690,7 @@
         <v>90</v>
       </c>
       <c r="B385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4698,7 +4698,7 @@
         <v>91</v>
       </c>
       <c r="B386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4706,7 +4706,7 @@
         <v>55</v>
       </c>
       <c r="B387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4714,7 +4714,7 @@
         <v>72</v>
       </c>
       <c r="B388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4722,7 +4722,7 @@
         <v>47</v>
       </c>
       <c r="B389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4730,7 +4730,7 @@
         <v>48</v>
       </c>
       <c r="B390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4738,7 +4738,7 @@
         <v>340</v>
       </c>
       <c r="B391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4746,7 +4746,7 @@
         <v>77</v>
       </c>
       <c r="B392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4754,7 +4754,7 @@
         <v>78</v>
       </c>
       <c r="B393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4762,7 +4762,7 @@
         <v>79</v>
       </c>
       <c r="B394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4770,7 +4770,7 @@
         <v>83</v>
       </c>
       <c r="B395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4778,7 +4778,7 @@
         <v>80</v>
       </c>
       <c r="B396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4786,7 +4786,7 @@
         <v>93</v>
       </c>
       <c r="B397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4794,7 +4794,7 @@
         <v>84</v>
       </c>
       <c r="B398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4802,7 +4802,7 @@
         <v>85</v>
       </c>
       <c r="B399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4810,7 +4810,7 @@
         <v>101</v>
       </c>
       <c r="B400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="17" x14ac:dyDescent="0.25">
@@ -4818,7 +4818,7 @@
         <v>328</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="2:2" ht="17" x14ac:dyDescent="0.25">
